--- a/Resultados/Mercado mundial - Ajíes y pimientos secos (caspicum y pimenta), en bruto.xlsx
+++ b/Resultados/Mercado mundial - Ajíes y pimientos secos (caspicum y pimenta), en bruto.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="India" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Bangladesh" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Thailand" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="China, mainland" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Ethiopia" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bangladesh" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tailandia" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Etiopía" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,9 +301,8 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -407,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -433,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -489,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -515,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -571,18 +570,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Exportaciones (Miles de Toneladas)</a:t>
+              <a:t>Exportaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -597,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -640,7 +639,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -653,18 +652,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Importaciones (Miles de Toneladas)</a:t>
+              <a:t>Importaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -679,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -722,7 +721,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -735,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -761,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'India'!$B$12:$B$73</f>
+              <f>'India'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'India'!$C$12:$C$73</f>
+              <f>'India'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -817,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Bangladesh'!$B$12:$B$73</f>
+              <f>'Bangladesh'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Bangladesh'!$C$12:$C$73</f>
+              <f>'Bangladesh'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -899,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -925,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Thailand'!$B$12:$B$73</f>
+              <f>'Tailandia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Thailand'!$C$12:$C$73</f>
+              <f>'Tailandia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -981,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1007,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1063,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1089,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Ethiopia'!$B$12:$B$73</f>
+              <f>'Etiopía'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Ethiopia'!$C$12:$C$73</f>
+              <f>'Etiopía'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1145,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1163,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1203,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1233,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1273,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1303,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1343,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1373,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1413,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1425,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1440,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1462,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1492,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1514,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1544,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1566,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1581,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1596,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1618,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1648,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1670,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2060,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2139,10 +2138,10 @@
         <v>1802522</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3.2298</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>5821857.73</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3.2298</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1100216.57</v>
@@ -2161,10 +2160,10 @@
         <v>1606902</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3.0054</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>4829440.45</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>3.0054</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1010341.35</v>
@@ -2183,10 +2182,10 @@
         <v>1630759</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2.9765</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>4854033.42</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2.9765</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1117011.79</v>
@@ -2205,10 +2204,10 @@
         <v>1562273</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2.7813</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>4345075.04</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2.7813</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1011683.86</v>
@@ -2227,10 +2226,10 @@
         <v>1720241</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2.4329</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>4185248.55</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2.4329</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>935183.87</v>
@@ -2249,10 +2248,10 @@
         <v>1705470</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2.6973</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>4600117.08</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2.6973</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>791572.9399999999</v>
@@ -2271,10 +2270,10 @@
         <v>1822914</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2.4679</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>4498775.26</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2.4679</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>710120.98</v>
@@ -2293,10 +2292,10 @@
         <v>1819529</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2.1694</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>3947199.26</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2.1694</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>644542.59</v>
@@ -2315,10 +2314,10 @@
         <v>1721531</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2.3298</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>4010871.87</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2.3298</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>653963.89</v>
@@ -2337,10 +2336,10 @@
         <v>1675747</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>3700114.53</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2.208</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>593260.53</v>
@@ -2359,10 +2358,10 @@
         <v>1678269</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2.1287</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>3572590.8</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2.1287</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>563777</v>
@@ -2381,10 +2380,10 @@
         <v>1707769</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.9705</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>3365129.37</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.9705</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>593637</v>
@@ -2403,10 +2402,10 @@
         <v>1652989</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>3175439.64</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.921</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>545973</v>
@@ -2425,10 +2424,10 @@
         <v>1653323</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.8606</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>3076168.07</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.8606</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>548278</v>
@@ -2447,10 +2446,10 @@
         <v>1633973</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.8591</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>3037797.9</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.8591</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>555881</v>
@@ -2469,10 +2468,10 @@
         <v>1651346</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.8509</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>3056466.2</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.8509</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>521326</v>
@@ -2491,10 +2490,10 @@
         <v>1690838</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.7542</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2966149.97</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.7542</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>522919</v>
@@ -2513,10 +2512,10 @@
         <v>1607361</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.7668</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>2839853.91</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.7668</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>447859</v>
@@ -2535,10 +2534,10 @@
         <v>1551655</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.7515</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>2717653.24</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.7515</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>465191</v>
@@ -2557,10 +2556,10 @@
         <v>1620937</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.6898</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>2739066.5</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.6898</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>468748</v>
@@ -2579,10 +2578,10 @@
         <v>1649724</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.6476</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>2718157.24</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.6476</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>391627</v>
@@ -2601,10 +2600,10 @@
         <v>1706879</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.3784</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2352763.42</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.3784</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>380300.15</v>
@@ -2623,10 +2622,10 @@
         <v>1728088</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.4304</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>2471846.58</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.4304</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>328040.52</v>
@@ -2645,10 +2644,10 @@
         <v>1710661</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.4403</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>2463799.04</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.4403</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>278095.15</v>
@@ -2667,10 +2666,10 @@
         <v>1767380</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.3405</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>2369169.73</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.3405</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>278980.8</v>
@@ -2689,10 +2688,10 @@
         <v>1569749</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.4358</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>2253917.71</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.4358</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>245731.53</v>
@@ -2711,10 +2710,10 @@
         <v>1540008</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.3378</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>2060201.76</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.3378</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>219152.72</v>
@@ -2733,10 +2732,10 @@
         <v>1626432</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.3499</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>2195528.91</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.3499</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>211035.02</v>
@@ -2755,10 +2754,10 @@
         <v>1551208</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.2295</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1907264.93</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.2295</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>193774.01</v>
@@ -2777,10 +2776,10 @@
         <v>1481194</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1.231</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1823288.26</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1.231</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>196260.27</v>
@@ -2799,10 +2798,10 @@
         <v>1608171</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1.2005</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1930650.36</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1.2005</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>193990</v>
@@ -2821,10 +2820,10 @@
         <v>1850415</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1.0604</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1962194.98</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1.0604</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>225005</v>
@@ -2843,10 +2842,10 @@
         <v>1714879</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1.0365</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1777526.73</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1.0365</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>191590</v>
@@ -2865,10 +2864,10 @@
         <v>1676403</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1.1532</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1933158.48</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1.1532</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>168695</v>
@@ -2887,10 +2886,10 @@
         <v>1779962</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1.1225</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1998016</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1.1225</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>163670</v>
@@ -2909,10 +2908,10 @@
         <v>1647112</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1831629</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.112</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>154433</v>
@@ -2931,10 +2930,10 @@
         <v>1575571</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1.1019</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1736184</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1.1019</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>128956</v>
@@ -2953,10 +2952,10 @@
         <v>1678333</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1.0697</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1795257</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1.0697</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>138112</v>
@@ -2975,10 +2974,10 @@
         <v>1737854</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1.1368</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1975624</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1.1368</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>143273</v>
@@ -2997,10 +2996,10 @@
         <v>1570095</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1.0951</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1719405</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1.0951</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>135619</v>
@@ -3019,10 +3018,10 @@
         <v>1554342</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1.059</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1645998</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1.059</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>125769</v>
@@ -3041,10 +3040,10 @@
         <v>1563722</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1.0488</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1639982</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1.0488</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>110750</v>
@@ -3063,10 +3062,10 @@
         <v>1547127</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1.0108</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1563880</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1.0108</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>95233</v>
@@ -3085,10 +3084,10 @@
         <v>1572432</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1.0101</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1588321</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1.0101</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>98401</v>
@@ -3107,10 +3106,10 @@
         <v>1590878</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1.0025</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1594881</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1.0025</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>124373</v>
@@ -3129,10 +3128,10 @@
         <v>1580552</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1.0323</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1631650</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1.0323</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>74424</v>
@@ -3151,10 +3150,10 @@
         <v>1533393</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1.0416</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1597221</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1.0416</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>64206</v>
@@ -3173,10 +3172,10 @@
         <v>1503647</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.9284</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1396049</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.9284</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>81333</v>
@@ -3195,10 +3194,10 @@
         <v>1439444</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1.0136</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1459033</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1.0136</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>58961</v>
@@ -3217,10 +3216,10 @@
         <v>1342929</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.9949</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1336033</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.9949</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>65991</v>
@@ -3239,10 +3238,10 @@
         <v>1420838</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.9943</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1412714</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.9943</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>60633</v>
@@ -3261,10 +3260,10 @@
         <v>1357131</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.9712000000000001</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1318076</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.9712000000000001</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>63302</v>
@@ -3283,10 +3282,10 @@
         <v>1401741</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.9522</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1334706</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.9522</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>61976</v>
@@ -3305,10 +3304,10 @@
         <v>1439427</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.9408</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1354158</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.9408</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>63283</v>
@@ -3327,10 +3326,10 @@
         <v>1305410</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.9157000000000001</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1195305</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.9157000000000001</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>56489</v>
@@ -3349,10 +3348,10 @@
         <v>1273473</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.9242</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1176919</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.9242</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>63614</v>
@@ -3371,10 +3370,10 @@
         <v>1380738</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.9076000000000001</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1253127</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.9076000000000001</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>53751</v>
@@ -3392,10 +3391,10 @@
         <v>1319058</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.8806</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1161597</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.8806</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>54233</v>
@@ -3413,10 +3412,10 @@
         <v>1230311</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.8596</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1057577</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.8596</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>51834</v>
@@ -3434,10 +3433,10 @@
         <v>1291123</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.9004</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1162494</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.9004</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>57698</v>
@@ -3455,10 +3454,10 @@
         <v>1314798</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.8841</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1162437</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.8841</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>47579</v>
@@ -3476,10 +3475,10 @@
         <v>1199516</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1077009</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.8979</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>52665</v>
@@ -3497,10 +3496,10 @@
         <v>1150425</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>991649</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.862</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>47118</v>
@@ -3787,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3911,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3925,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3939,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Etiopía</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3995,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4023,43 +4022,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>61090.47</v>
+        <v>787946.830000001</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.0104932948954079</v>
+        <v>0.1353428521517651</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>726856.3600000013</v>
+        <v>5821857.73</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.1248495572563573</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>5821857.73</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4070,41 +4061,40 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="12" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="35" t="n"/>
+      <c r="C28" s="33" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="35" t="n"/>
+      <c r="C29" s="33" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="35" t="n"/>
+      <c r="C30" s="33" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="35" t="n"/>
+      <c r="C31" s="33" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="35" t="n"/>
+      <c r="C32" s="33" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="35" t="n"/>
+      <c r="C33" s="33" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="35" t="n"/>
+      <c r="C34" s="33" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4126,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4239,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4253,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4267,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4281,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4295,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Uzbekistán</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4309,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Túnez</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4323,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4408,124 +4398,124 @@
     <row r="26">
       <c r="B26" s="13" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="36" t="n"/>
+      <c r="D26" s="35" t="n"/>
       <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="36" t="n"/>
+      <c r="D27" s="35" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="36" t="n"/>
+      <c r="D28" s="35" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="36" t="n"/>
+      <c r="D29" s="35" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="36" t="n"/>
+      <c r="D30" s="35" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="36" t="n"/>
+      <c r="D31" s="35" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="36" t="n"/>
+      <c r="D32" s="35" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="36" t="n"/>
+      <c r="D33" s="35" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="36" t="n"/>
+      <c r="D34" s="35" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="D35" s="35" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="D36" s="35" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="37" t="n"/>
+      <c r="D37" s="36" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="37" t="n"/>
+      <c r="D38" s="36" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="37" t="n"/>
+      <c r="D39" s="36" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="37" t="n"/>
+      <c r="D40" s="36" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="37" t="n"/>
+      <c r="D41" s="36" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="37" t="n"/>
+      <c r="D42" s="36" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="37" t="n"/>
+      <c r="D43" s="36" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="37" t="n"/>
+      <c r="D44" s="36" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="37" t="n"/>
+      <c r="D45" s="36" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4547,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4643,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4657,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4671,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4685,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4713,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4727,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malasia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4769,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>República de Corea</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4822,58 +4812,58 @@
     </row>
     <row r="26">
       <c r="B26" s="15" t="n"/>
-      <c r="C26" s="38" t="n"/>
+      <c r="C26" s="37" t="n"/>
       <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="38" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="38" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="38" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="38" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="38" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="38" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="38" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="38" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="38" t="n"/>
-      <c r="D35" s="37" t="n"/>
+      <c r="C35" s="37" t="n"/>
+      <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="38" t="n"/>
-      <c r="D36" s="37" t="n"/>
+      <c r="C36" s="37" t="n"/>
+      <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4942,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5021,10 +5011,10 @@
         <v>852000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3.2653</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2782000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3.2653</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>5689.36</v>
@@ -5043,10 +5033,10 @@
         <v>678000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2.764</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1874000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2.764</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2252.41</v>
@@ -5065,10 +5055,10 @@
         <v>702000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2.9188</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2049000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2.9188</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2770.88</v>
@@ -5087,10 +5077,10 @@
         <v>626000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2.9313</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1835000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2.9313</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1322.12</v>
@@ -5109,10 +5099,10 @@
         <v>780000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2.2346</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1743000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2.2346</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1452.73</v>
@@ -5131,10 +5121,10 @@
         <v>752000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2.8577</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2149000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2.8577</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1360.66</v>
@@ -5153,10 +5143,10 @@
         <v>840000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2.4952</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2096000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2.4952</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1412.88</v>
@@ -5175,10 +5165,10 @@
         <v>811140</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.8744</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1520390</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.8744</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1148.62</v>
@@ -5197,10 +5187,10 @@
         <v>761000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2.1091</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1605000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2.1091</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>185.02</v>
@@ -5219,10 +5209,10 @@
         <v>775000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.9252</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1492000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.9252</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>408.63</v>
@@ -5241,10 +5231,10 @@
         <v>775000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.9252</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1492000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.9252</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>915</v>
@@ -5263,10 +5253,10 @@
         <v>793590</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.6432</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1304000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.6432</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1808</v>
@@ -5285,10 +5275,10 @@
         <v>804792</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.5859</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1276301</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.5859</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1803</v>
@@ -5307,10 +5297,10 @@
         <v>792100</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.5445</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1223400</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.5445</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>593</v>
@@ -5329,10 +5319,10 @@
         <v>767230</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.5679</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1202940</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.5679</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1684</v>
@@ -5351,10 +5341,10 @@
         <v>779050</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1269850</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.63</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1168</v>
@@ -5373,10 +5363,10 @@
         <v>808170</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.6013</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1294150</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.6013</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>878</v>
@@ -5395,10 +5385,10 @@
         <v>758000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.6281</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1234100</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.6281</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1641</v>
@@ -5417,10 +5407,10 @@
         <v>654900</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.5492</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1014600</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.5492</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1072</v>
@@ -5439,10 +5429,10 @@
         <v>737500</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.6075</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1185500</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.6075</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>556</v>
@@ -5461,10 +5451,10 @@
         <v>774300</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.5959</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1235700</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.5959</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2117</v>
@@ -5483,10 +5473,10 @@
         <v>828600</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.0824</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>896900</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.0824</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1447</v>
@@ -5505,10 +5495,10 @@
         <v>880000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.2148</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1069000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.2148</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1111</v>
@@ -5527,10 +5517,10 @@
         <v>836500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.176</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>983700</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.176</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>138</v>
@@ -5549,10 +5539,10 @@
         <v>959200</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.0976</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1052800</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.0976</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>209.16</v>
@@ -5571,10 +5561,10 @@
         <v>891200</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.1706</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1043200</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.1706</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>276</v>
@@ -5593,10 +5583,10 @@
         <v>840600</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.0351</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>870100</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.0351</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>56</v>
@@ -5615,10 +5605,10 @@
         <v>944000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.1292</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1066000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.1292</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1</v>
@@ -5637,10 +5627,10 @@
         <v>883000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.9173</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>810000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.9173</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>114</v>
@@ -5659,10 +5649,10 @@
         <v>829100</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>794700</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.9585</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>6</v>
@@ -5681,10 +5671,10 @@
         <v>930000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.8603</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>800100</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.8603</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5703,10 +5693,10 @@
         <v>962100</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.8961</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>862100</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.8961</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5725,10 +5715,10 @@
         <v>846600</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.7293999999999999</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>617500</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.7293999999999999</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>30</v>
@@ -5747,10 +5737,10 @@
         <v>816200</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.8809</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>719000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.8809</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>12</v>
@@ -5769,10 +5759,10 @@
         <v>907800</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.8829</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>801500</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.8829</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>23</v>
@@ -5791,10 +5781,10 @@
         <v>805000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.8447</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>680000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.8447</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>14</v>
@@ -5813,10 +5803,10 @@
         <v>743200</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.7801</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>579800</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.7801</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>8</v>
@@ -5835,10 +5825,10 @@
         <v>834600</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.7539</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>629200</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.7539</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>4</v>
@@ -5857,10 +5847,10 @@
         <v>904100</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.9705</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>877400</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.9705</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5879,10 +5869,10 @@
         <v>794800</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.7933</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>630500</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.7933</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>51</v>
@@ -5901,10 +5891,10 @@
         <v>808100</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>566500</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.701</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>13</v>
@@ -5923,10 +5913,10 @@
         <v>818000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.6587999999999999</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>538900</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.6587999999999999</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>149</v>
@@ -5945,10 +5935,10 @@
         <v>806400</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.6383</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>514700</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.6383</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>106</v>
@@ -5967,10 +5957,10 @@
         <v>834800</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.6098</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>509100</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.6098</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1</v>
@@ -5989,10 +5979,10 @@
         <v>853900</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.5943999999999999</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>507600</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.5943999999999999</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>26</v>
@@ -6011,10 +6001,10 @@
         <v>826000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.6849</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>565700</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.6849</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>176</v>
@@ -6033,10 +6023,10 @@
         <v>790900</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.6869</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>543300</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.6869</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>75</v>
@@ -6055,10 +6045,10 @@
         <v>781500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.5367000000000001</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>419400</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.5367000000000001</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>5</v>
@@ -6077,10 +6067,10 @@
         <v>739800</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.7111000000000001</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>526100</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.7111000000000001</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>49</v>
@@ -6099,10 +6089,10 @@
         <v>685600</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.6435</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>441200</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.6435</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>20</v>
@@ -6121,10 +6111,10 @@
         <v>738800</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.6727000000000001</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>497000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.6727000000000001</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>5</v>
@@ -6143,10 +6133,10 @@
         <v>682400</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.6032999999999999</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>411700</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.6032999999999999</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6165,10 +6155,10 @@
         <v>753100</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.6557999999999999</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>493900</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.6557999999999999</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>6</v>
@@ -6187,10 +6177,10 @@
         <v>783400</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.6643</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>520400</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.6643</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>2</v>
@@ -6209,10 +6199,10 @@
         <v>682000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.5792</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>395000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.5792</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>34</v>
@@ -6231,10 +6221,10 @@
         <v>663000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.6018</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>399000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.6018</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6253,10 +6243,10 @@
         <v>788000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.6357999999999999</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>501000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.6357999999999999</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6274,10 +6264,10 @@
         <v>721000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.5798</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>418000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.5798</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6295,10 +6285,10 @@
         <v>634000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.5741000000000001</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>364000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.5741000000000001</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>3</v>
@@ -6316,10 +6306,10 @@
         <v>716000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.6634</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>475000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.6634</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6337,10 +6327,10 @@
         <v>748000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.6551</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>490000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.6551</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6358,10 +6348,10 @@
         <v>637000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.6672</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>425000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.6672</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6379,10 +6369,10 @@
         <v>616000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.6315</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>389000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.6315</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6718,7 +6708,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6797,10 +6787,10 @@
         <v>97361</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6.808</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>662833</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6.808</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>71459.00999999999</v>
@@ -6819,10 +6809,10 @@
         <v>98324</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>6.3548</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>624825</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>6.3548</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>33286.86</v>
@@ -6841,10 +6831,10 @@
         <v>100137</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>4.920100000000001</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>492681</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>4.920100000000001</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>47323.72</v>
@@ -6863,10 +6853,10 @@
         <v>96901</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.6265</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>157607</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.6265</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>65844.25999999999</v>
@@ -6885,10 +6875,10 @@
         <v>96800</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.5441</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>149473</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.5441</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>19028.03</v>
@@ -6907,10 +6897,10 @@
         <v>101072</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.3968</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>141177</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.3968</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3743</v>
@@ -6929,10 +6919,10 @@
         <v>103380</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.324</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>136872</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.324</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>8672</v>
@@ -6951,10 +6941,10 @@
         <v>101972</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.2774</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>130260</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.2774</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>5692</v>
@@ -6973,10 +6963,10 @@
         <v>92167</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1.3368</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>123207</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1.3368</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>35153.49</v>
@@ -6995,10 +6985,10 @@
         <v>89820</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.2247</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>110000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.2247</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>26934.95</v>
@@ -7017,10 +7007,10 @@
         <v>93460</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.0914</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>102000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.0914</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>28863</v>
@@ -7039,10 +7029,10 @@
         <v>97120</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.2974</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>126000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.2974</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>21878</v>
@@ -7061,10 +7051,10 @@
         <v>104967</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>176134</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.678</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>13177</v>
@@ -7083,10 +7073,10 @@
         <v>87026</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.2565</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>109350</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.2565</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>28079</v>
@@ -7105,10 +7095,10 @@
         <v>89268</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.2248</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>109337</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.2248</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>26640</v>
@@ -7127,10 +7117,10 @@
         <v>94406</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.2474</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>117765</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.2474</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2229</v>
@@ -7149,10 +7139,10 @@
         <v>141490</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.0881</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>153955</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.0881</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>31704</v>
@@ -7171,10 +7161,10 @@
         <v>142466</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>155430</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.091</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2300</v>
@@ -7193,10 +7183,10 @@
         <v>154812</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.1991</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>185635</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.1991</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>9723</v>
@@ -7215,10 +7205,10 @@
         <v>162154</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.8556</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>138740</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.8556</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>18441</v>
@@ -7237,10 +7227,10 @@
         <v>169937</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.8081</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>137325</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.8081</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>14418</v>
@@ -7259,10 +7249,10 @@
         <v>169970</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.8001</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>136000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.8001</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>16012</v>
@@ -7281,10 +7271,10 @@
         <v>174826</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.8065</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>141000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.8065</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2400</v>
@@ -7303,10 +7293,10 @@
         <v>175231</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.8161</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>143000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.8161</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>280</v>
@@ -7325,10 +7315,10 @@
         <v>174826</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.8122</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>142000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.8122</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>9661</v>
@@ -7347,10 +7337,10 @@
         <v>66290</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.7968</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>52820</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.7968</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>59</v>
@@ -7369,10 +7359,10 @@
         <v>66205</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.7887000000000001</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>52215</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.7887000000000001</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>49</v>
@@ -7391,10 +7381,10 @@
         <v>66000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.7962</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>52550</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.7962</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>10306</v>
@@ -7413,10 +7403,10 @@
         <v>66400</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.7932</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>52670</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.7932</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>768</v>
@@ -7435,10 +7425,10 @@
         <v>66800</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.8067000000000001</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>53890</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.8067000000000001</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>5296</v>
@@ -7457,10 +7447,10 @@
         <v>67168</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.8094</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>54365</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.8094</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2472</v>
@@ -7479,10 +7469,10 @@
         <v>67265</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>50715</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.754</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>21774</v>
@@ -7501,10 +7491,10 @@
         <v>70183</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.7393999999999999</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>51895</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.7393999999999999</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>16538</v>
@@ -7523,10 +7513,10 @@
         <v>69646</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.7397</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>51520</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.7397</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>733</v>
@@ -7545,10 +7535,10 @@
         <v>67796</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.7004</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>47485</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.7004</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>85</v>
@@ -7567,10 +7557,10 @@
         <v>67393</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.6717000000000001</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>45270</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.6717000000000001</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>3452</v>
@@ -7589,10 +7579,10 @@
         <v>66490</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.6467000000000001</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>43000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.6467000000000001</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>565</v>
@@ -7611,10 +7601,10 @@
         <v>68865</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.6404</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>44100</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.6404</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>12</v>
@@ -7633,10 +7623,10 @@
         <v>72061</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>44753</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.621</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>4265</v>
@@ -7655,10 +7645,10 @@
         <v>75527</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.6093</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>46018</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.6093</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1952</v>
@@ -7677,10 +7667,10 @@
         <v>75526</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.6143</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>46397</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.6143</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7699,10 +7689,10 @@
         <v>75643</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>44249</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.585</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1007</v>
@@ -7721,10 +7711,10 @@
         <v>73605</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.5491</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>40414</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.5491</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>271</v>
@@ -7743,10 +7733,10 @@
         <v>80995</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.6146</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>49777</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.6146</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>116</v>
@@ -7765,10 +7755,10 @@
         <v>83467</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.6293</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>52523</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.6293</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>18</v>
@@ -7787,10 +7777,10 @@
         <v>82547</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.6016</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>49664</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.6016</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>700</v>
@@ -7809,10 +7799,10 @@
         <v>77069</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.5887</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>45367</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.5887</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>114</v>
@@ -7831,10 +7821,10 @@
         <v>79232</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.6675</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>52888</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.6675</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>36</v>
@@ -7853,10 +7843,10 @@
         <v>78856</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.6365</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>50192</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.6365</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7875,10 +7865,10 @@
         <v>66822</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.6607000000000001</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>44147</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.6607000000000001</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>12</v>
@@ -7897,10 +7887,10 @@
         <v>77662</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.6734</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>52300</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.6734</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>108</v>
@@ -7919,10 +7909,10 @@
         <v>82335</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.7163999999999999</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>58987</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.7163999999999999</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7941,10 +7931,10 @@
         <v>88600</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.7222999999999999</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>64000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.7222999999999999</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7963,10 +7953,10 @@
         <v>89000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.7539</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>67100</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.7539</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7985,10 +7975,10 @@
         <v>87400</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.7094</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>62000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.7094</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -8007,10 +7997,10 @@
         <v>86200</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.6949</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>59900</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.6949</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8029,10 +8019,10 @@
         <v>80500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.6944</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>55900</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.6944</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8050,10 +8040,10 @@
         <v>77700</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.6795</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>52800</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.6795</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8071,10 +8061,10 @@
         <v>78500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.6586000000000001</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>51700</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.6586000000000001</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8092,10 +8082,10 @@
         <v>78500</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.6777000000000001</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>53200</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.6777000000000001</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8113,10 +8103,10 @@
         <v>73200</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.6653</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>48700</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.6653</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8134,10 +8124,10 @@
         <v>70000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.6857000000000001</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>48000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.6857000000000001</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8155,10 +8145,10 @@
         <v>70800</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.6637999999999999</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>47000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.6637999999999999</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8494,7 +8484,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8573,10 +8563,10 @@
         <v>84570</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3.8892</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>328909.71</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3.8892</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>84479.39</v>
@@ -8595,10 +8585,10 @@
         <v>84799</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3.8607</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>327383.88</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>3.8607</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>83149.42999999999</v>
@@ -8617,10 +8607,10 @@
         <v>85042</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>330388.97</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>3.885</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>84468.49000000001</v>
@@ -8639,10 +8629,10 @@
         <v>88202</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3.7296</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>328956.29</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>3.7296</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>77459.53</v>
@@ -8661,10 +8651,10 @@
         <v>88945</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>3.6293</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>322806.38</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>3.6293</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>83947.83</v>
@@ -8683,10 +8673,10 @@
         <v>87231</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>3.8909</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>339404.25</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>3.8909</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>78811.85000000001</v>
@@ -8705,10 +8695,10 @@
         <v>84865</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>3.8256</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>324658.22</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>3.8256</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>89932.32000000001</v>
@@ -8727,10 +8717,10 @@
         <v>85244</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>3.5704</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>304356.67</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>3.5704</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>72366.28</v>
@@ -8749,10 +8739,10 @@
         <v>85645</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>4.0659</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>348223</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>4.0659</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>74180.72</v>
@@ -8771,10 +8761,10 @@
         <v>87176</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>3.6867</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>321395</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>3.6867</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>68944.98</v>
@@ -8793,10 +8783,10 @@
         <v>87793</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2.773</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>243452</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2.773</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>53760</v>
@@ -8815,10 +8805,10 @@
         <v>81084</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2.6592</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>215619.15</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2.6592</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>50654</v>
@@ -8837,10 +8827,10 @@
         <v>74709</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2.5183</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>188138.19</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2.5183</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>36970</v>
@@ -8859,10 +8849,10 @@
         <v>71803</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2.2128</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>158883</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2.2128</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>43022</v>
@@ -8881,10 +8871,10 @@
         <v>71305</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2.3204</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>165458</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2.3204</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>45488</v>
@@ -8903,10 +8893,10 @@
         <v>70984</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2.2912</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>162637</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2.2912</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>32882</v>
@@ -8925,10 +8915,10 @@
         <v>70605</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2.2535</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>159109</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2.2535</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>42879</v>
@@ -8947,10 +8937,10 @@
         <v>70388</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>2.2177</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>156101</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>2.2177</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>32485</v>
@@ -8969,10 +8959,10 @@
         <v>69596</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>2.1864</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>152164</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>2.1864</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>29084</v>
@@ -8991,10 +8981,10 @@
         <v>69452</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>2.1658</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>150422</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>2.1658</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>25994</v>
@@ -9013,10 +9003,10 @@
         <v>69058</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>2.109</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>145644</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>2.109</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>19042</v>
@@ -9035,10 +9025,10 @@
         <v>67685</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2.0848</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>141109</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>2.0848</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>14705</v>
@@ -9057,10 +9047,10 @@
         <v>67367</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>2.0363</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>137182</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>2.0363</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>9252</v>
@@ -9079,10 +9069,10 @@
         <v>66421</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>2.0396</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>135470</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>2.0396</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>7824</v>
@@ -9101,10 +9091,10 @@
         <v>23200</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.7241</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>40000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.7241</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>4643</v>
@@ -9123,10 +9113,10 @@
         <v>23040</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.6493</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>38000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.6493</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>4079</v>
@@ -9145,10 +9135,10 @@
         <v>22080</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.4946</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>33000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.4946</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>5080</v>
@@ -9167,10 +9157,10 @@
         <v>22240</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.4838</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>33000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.4838</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>3436</v>
@@ -9189,10 +9179,10 @@
         <v>22080</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.4493</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>32000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.4493</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>2047</v>
@@ -9211,10 +9201,10 @@
         <v>21760</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1.4706</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>32000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1.4706</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>5428</v>
@@ -9233,10 +9223,10 @@
         <v>21600</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1.4815</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>32000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1.4815</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2635</v>
@@ -9255,10 +9245,10 @@
         <v>21440</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1.6325</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>35000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1.6325</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1776</v>
@@ -9277,10 +9267,10 @@
         <v>14608</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1.1706</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>17100</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1.1706</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>2198</v>
@@ -9299,10 +9289,10 @@
         <v>11872</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>20800</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1.752</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>3127</v>
@@ -9321,10 +9311,10 @@
         <v>9120</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1.6228</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>14800</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1.6228</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>3153</v>
@@ -9343,10 +9333,10 @@
         <v>21760</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>37100</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.705</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1866</v>
@@ -9365,10 +9355,10 @@
         <v>21680</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1.8035</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>39100</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1.8035</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>3959</v>
@@ -9387,10 +9377,10 @@
         <v>22000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1.5909</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>35000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1.5909</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>2148</v>
@@ -9409,10 +9399,10 @@
         <v>27360</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1.3999</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>38300</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1.3999</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1902</v>
@@ -9431,10 +9421,10 @@
         <v>36480</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1.7489</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>63800</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1.7489</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1105</v>
@@ -9453,10 +9443,10 @@
         <v>31392</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>53900</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1.717</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>3021</v>
@@ -9475,10 +9465,10 @@
         <v>36928</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1.6627</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>61400</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1.6627</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>2196</v>
@@ -9497,10 +9487,10 @@
         <v>35392</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1.7207</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>60900</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1.7207</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1517</v>
@@ -9519,10 +9509,10 @@
         <v>35040</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1.6895</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>59200</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1.6895</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>239</v>
@@ -9541,10 +9531,10 @@
         <v>36080</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1.7073</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>61600</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1.7073</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>973</v>
@@ -9563,10 +9553,10 @@
         <v>38304</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1.6369</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>62700</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1.6369</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>230</v>
@@ -9585,10 +9575,10 @@
         <v>34832</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1.8977</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>66100</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1.8977</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>814</v>
@@ -9607,10 +9597,10 @@
         <v>38368</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1.8427</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>70700</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1.8427</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>3600</v>
@@ -9629,10 +9619,10 @@
         <v>33888</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1.8059</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>61200</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1.8059</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>441</v>
@@ -9651,10 +9641,10 @@
         <v>31536</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1.8962</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>59800</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1.8962</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>878</v>
@@ -9673,10 +9663,10 @@
         <v>33232</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2.287</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>76000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2.287</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>147</v>
@@ -9695,10 +9685,10 @@
         <v>44176</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1.9196</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>84800</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1.9196</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1248</v>
@@ -9717,10 +9707,10 @@
         <v>33376</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1.6419</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>54800</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1.6419</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>218</v>
@@ -9739,10 +9729,10 @@
         <v>40368</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1.5557</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>62800</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1.5557</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>226</v>
@@ -9761,10 +9751,10 @@
         <v>30304</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1.4652</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>44400</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1.4652</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>563</v>
@@ -9783,10 +9773,10 @@
         <v>27568</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1.5271</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>42100</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1.5271</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>3</v>
@@ -9805,10 +9795,10 @@
         <v>29648</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1.4436</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>42800</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1.4436</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>1</v>
@@ -9826,10 +9816,10 @@
         <v>33680</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1.5232</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>51300</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1.5232</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>29</v>
@@ -9847,10 +9837,10 @@
         <v>24896</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1.4299</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>35600</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1.4299</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>4</v>
@@ -9868,10 +9858,10 @@
         <v>24336</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1.319</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>32100</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1.319</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>5</v>
@@ -9889,10 +9879,10 @@
         <v>27296</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1.4691</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>40100</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1.4691</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>12</v>
@@ -9910,10 +9900,10 @@
         <v>28368</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1.2972</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>36800</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1.2972</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>3</v>
@@ -9931,10 +9921,10 @@
         <v>23760</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1.1532</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>27400</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1.1532</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10270,7 +10260,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10349,10 +10339,10 @@
         <v>49105</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6.6291</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>325522.02</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6.6291</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>144435.47</v>
@@ -10371,10 +10361,10 @@
         <v>49278</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>6.6345</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>326936.16</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>6.6345</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>135484.84</v>
@@ -10393,10 +10383,10 @@
         <v>49175</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>6.6305</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>326057.39</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>6.6305</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>223397.63</v>
@@ -10415,10 +10405,10 @@
         <v>48860</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>6.6224</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>323572.51</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>6.6224</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>168187.5</v>
@@ -10437,10 +10427,10 @@
         <v>49800</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>6.6502</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>331178.57</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>6.6502</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>168849.79</v>
@@ -10459,10 +10449,10 @@
         <v>48865</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>6.6187</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>323421.11</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>6.6187</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>81811.25</v>
@@ -10481,10 +10471,10 @@
         <v>47916</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6.597300000000001</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>316117.85</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6.597300000000001</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>7688.57</v>
@@ -10503,10 +10493,10 @@
         <v>46716</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>6.616</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>309074.98</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>6.616</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2111.82</v>
@@ -10525,10 +10515,10 @@
         <v>45754</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>6.6837</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>305809.44</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>6.6837</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2990.07</v>
@@ -10547,10 +10537,10 @@
         <v>45015</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>6.8264</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>307286.89</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>6.8264</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3256.41</v>
@@ -10569,10 +10559,10 @@
         <v>44000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>6.8182</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>300000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>6.8182</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>4217</v>
@@ -10591,10 +10581,10 @@
         <v>43000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>6.7442</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>290000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>6.7442</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>19031</v>
@@ -10613,10 +10603,10 @@
         <v>43125</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>6.4421</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>277815.73</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>6.4421</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>7024</v>
@@ -10635,10 +10625,10 @@
         <v>43000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>6.1628</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>265000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>6.1628</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>6465</v>
@@ -10657,10 +10647,10 @@
         <v>42000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>6.1905</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>260000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>6.1905</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1124</v>
@@ -10679,10 +10669,10 @@
         <v>41000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>6.1463</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>252000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>6.1463</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>737</v>
@@ -10701,10 +10691,10 @@
         <v>40000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>250000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>6.25</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2585</v>
@@ -10723,10 +10713,10 @@
         <v>38000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>6.4474</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>245000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>6.4474</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>261</v>
@@ -10745,10 +10735,10 @@
         <v>36500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>6.5753</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>240000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>6.5753</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1073</v>
@@ -10767,10 +10757,10 @@
         <v>36648</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>6.4123</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>235000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>6.4123</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>785</v>
@@ -10789,10 +10779,10 @@
         <v>36000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>6.3889</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>230000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>6.3889</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>343</v>
@@ -10811,10 +10801,10 @@
         <v>35500</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>6.1972</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>220000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>6.1972</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>657</v>
@@ -10833,10 +10823,10 @@
         <v>35058</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>6.1328</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>215000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>6.1328</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>527</v>
@@ -10855,10 +10845,10 @@
         <v>35000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>6.0571</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>212000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>6.0571</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>212.93</v>
@@ -10877,10 +10867,10 @@
         <v>34000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>6.3235</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>215000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>6.3235</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>204</v>
@@ -10899,10 +10889,10 @@
         <v>33418</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>6.134399999999999</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>205000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>6.134399999999999</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>187</v>
@@ -10921,10 +10911,10 @@
         <v>33000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>6.0606</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>200000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>6.0606</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>145</v>
@@ -10943,10 +10933,10 @@
         <v>30201</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>180000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>5.96</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1813</v>
@@ -10965,10 +10955,10 @@
         <v>29699</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>5.892399999999999</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>175000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>5.892399999999999</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1552</v>
@@ -10987,10 +10977,10 @@
         <v>31034</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>5.8002</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>180000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>5.8002</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>960</v>
@@ -11009,10 +10999,10 @@
         <v>30000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>5.7333</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>172000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>5.7333</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>310</v>
@@ -11031,10 +11021,10 @@
         <v>29000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>5.793100000000001</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>168000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>5.793100000000001</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>10871</v>
@@ -11053,10 +11043,10 @@
         <v>28000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>5.8571</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>164000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>5.8571</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1685</v>
@@ -11075,10 +11065,10 @@
         <v>28500</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>5.614</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>160000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>5.614</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>273</v>
@@ -11097,10 +11087,10 @@
         <v>28000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>5.5714</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>156000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>5.5714</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1399</v>
@@ -11119,10 +11109,10 @@
         <v>27000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5.6296</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>152000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>5.6296</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>3811</v>
@@ -11141,10 +11131,10 @@
         <v>27000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>5.5556</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>150000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>5.5556</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>35</v>
@@ -11163,10 +11153,10 @@
         <v>29000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>145000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>384</v>
@@ -11185,10 +11175,10 @@
         <v>25000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>140000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>5.6</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -11207,10 +11197,10 @@
         <v>25500</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>5.2941</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>135000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>5.2941</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -11229,10 +11219,10 @@
         <v>26000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>130000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -11251,10 +11241,10 @@
         <v>24500</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>5.102</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>125000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>5.102</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11273,10 +11263,10 @@
         <v>24000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -11295,10 +11285,10 @@
         <v>24000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>4.9167</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>118000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>4.9167</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11317,10 +11307,10 @@
         <v>23000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5.0435</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>116000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>5.0435</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11339,10 +11329,10 @@
         <v>24000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>4.6667</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>112000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>4.6667</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11361,10 +11351,10 @@
         <v>23500</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>4.680899999999999</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>110000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>4.680899999999999</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11383,10 +11373,10 @@
         <v>23500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>4.5957</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>108000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>4.5957</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11405,10 +11395,10 @@
         <v>23000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>4.5652</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>105000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>4.5652</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11427,10 +11417,10 @@
         <v>22000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>4.5455</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>100000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>4.5455</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11449,10 +11439,10 @@
         <v>21500</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>4.6047</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>99000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>4.6047</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11471,10 +11461,10 @@
         <v>21000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>4.5714</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>96000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>4.5714</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11493,10 +11483,10 @@
         <v>22000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>4.272699999999999</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>94000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>4.272699999999999</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11515,10 +11505,10 @@
         <v>20500</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>4.3902</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>90000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>4.3902</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11537,10 +11527,10 @@
         <v>22000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>88000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>4</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11559,10 +11549,10 @@
         <v>21000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>4.0476</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>85000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>4.0476</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11581,10 +11571,10 @@
         <v>20000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>80000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>4</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11602,10 +11592,10 @@
         <v>20000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>80000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>4</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11623,10 +11613,10 @@
         <v>20500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>3.8049</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>78000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>3.8049</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11644,10 +11634,10 @@
         <v>20000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>70000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>3.5</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11665,10 +11655,10 @@
         <v>18000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>3.6667</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>66000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>3.6667</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11686,10 +11676,10 @@
         <v>19000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>3.4211</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>65000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>3.4211</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11707,10 +11697,10 @@
         <v>19000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>3.3158</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>63000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>3.3158</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -12046,7 +12036,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12125,10 +12115,10 @@
         <v>175983</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.6945</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>298205.81</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.6945</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3.7</v>
@@ -12147,10 +12137,10 @@
         <v>146501</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.6033</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>234885.79</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.6033</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>251.21</v>
@@ -12169,10 +12159,10 @@
         <v>157650</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.5813</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>249289</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.5813</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>594.64</v>
@@ -12191,10 +12181,10 @@
         <v>168346</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.7582</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>295980.51</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.7582</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>137.15</v>
@@ -12213,10 +12203,10 @@
         <v>174464</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.7947</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>313115.43</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.7947</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>29.04</v>
@@ -12235,10 +12225,10 @@
         <v>172142</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.7861</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>307457.11</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.7861</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4.03</v>
@@ -12257,10 +12247,10 @@
         <v>152753</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>264722.53</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.733</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2.66</v>
@@ -12279,10 +12269,10 @@
         <v>180701</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.8251</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>329804</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.8251</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>53.92</v>
@@ -12301,10 +12291,10 @@
         <v>142795</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2.0286</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>289677.22</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2.0286</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>38.34</v>
@@ -12323,10 +12313,10 @@
         <v>92394</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.8482</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>170766</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.8482</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>26.5</v>
@@ -12345,10 +12335,10 @@
         <v>96571</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.8585</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>179480.06</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.8585</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>37</v>
@@ -12367,10 +12357,10 @@
         <v>85460</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.8552</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>158545.61</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.8552</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>38</v>
@@ -12389,10 +12379,10 @@
         <v>80389</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.8309</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>147180.76</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.8309</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2</v>
@@ -12411,10 +12401,10 @@
         <v>74993</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.8148</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>136100.06</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.8148</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1</v>
@@ -12433,10 +12423,10 @@
         <v>69676</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.7988</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>125335.86</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.7988</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2</v>
@@ -12455,10 +12445,10 @@
         <v>65187</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.7828</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>116216.17</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.7828</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>27</v>
@@ -12477,10 +12467,10 @@
         <v>63581</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.7668</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>112334.46</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.7668</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>6</v>
@@ -12499,10 +12489,10 @@
         <v>58102</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.7508</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>101723</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.7508</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>24</v>
@@ -12521,10 +12511,10 @@
         <v>66774</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.7348</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>115836.81</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.7348</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>19</v>
@@ -12543,10 +12533,10 @@
         <v>59762</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.7187</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>102714.77</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.7187</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>12</v>
@@ -12565,10 +12555,10 @@
         <v>64069</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.7082</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>109442.01</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.7082</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -12587,10 +12577,10 @@
         <v>57354</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.7031</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>97677.57000000001</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.7031</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>5</v>
@@ -12609,10 +12599,10 @@
         <v>53823</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.698</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>91389.02</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.698</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -12631,10 +12621,10 @@
         <v>52813</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.6929</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>89404.23</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.6929</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0.12</v>
@@ -12651,10 +12641,10 @@
         <v>51797</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.6877</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>87419.42999999999</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.6877</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -12673,10 +12663,10 @@
         <v>50774</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.6826</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>85434.63</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.6826</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -12695,10 +12685,10 @@
         <v>49746</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.6775</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>83449.83</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.6775</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -12715,10 +12705,10 @@
         <v>48711</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.6724</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>81465.03</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.6724</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -12735,10 +12725,10 @@
         <v>47670</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.6673</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>79480.23</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.6673</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -12755,10 +12745,10 @@
         <v>46622</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1.6622</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>77495.42999999999</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1.6622</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>3</v>
@@ -12775,10 +12765,10 @@
         <v>45568</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1.6571</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>75510.63</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1.6571</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -12786,399 +12776,745 @@
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="28" t="n">
-        <v>1992</v>
-      </c>
-      <c r="C43" s="29" t="inlineStr"/>
-      <c r="D43" s="29" t="inlineStr"/>
-      <c r="E43" s="29" t="inlineStr"/>
-      <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="inlineStr"/>
+      <c r="B43" s="29" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="C43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
-      <c r="H45" s="29" t="n"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>

--- a/Resultados/Mercado mundial - Ajíes y pimientos secos (caspicum y pimenta), en bruto.xlsx
+++ b/Resultados/Mercado mundial - Ajíes y pimientos secos (caspicum y pimenta), en bruto.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bangladesh" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tailandia" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Etiopía" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="India" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Bangladesh" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Thailand" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="China, mainland" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Ethiopia" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,8 +301,9 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,13 +407,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +433,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +489,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +515,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$23</f>
+              <f>'Países productores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$23</f>
+              <f>'Países productores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +597,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +653,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +679,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +735,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,10 +761,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +843,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +899,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +925,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Tailandia'!$B$12:$B$74</f>
+              <f>'Thailand'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Tailandia'!$C$12:$C$74</f>
+              <f>'Thailand'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +981,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1007,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1063,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1089,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Etiopía'!$B$12:$B$74</f>
+              <f>'Ethiopia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Etiopía'!$C$12:$C$74</f>
+              <f>'Ethiopia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1163,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1215,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1233,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1273,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1303,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1343,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1373,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1413,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1440,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1462,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1477,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1492,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1514,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1529,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1544,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1566,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1596,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1618,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1633,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1648,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1670,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2060,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2139,10 @@
         <v>1802522</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>5821857.73</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3.2298</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>5821857.73</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1100216.57</v>
@@ -2160,10 +2161,10 @@
         <v>1606902</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>4829440.45</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3.0054</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>4829440.45</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1010341.35</v>
@@ -2182,10 +2183,10 @@
         <v>1630759</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>4854033.42</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2.9765</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>4854033.42</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1117011.79</v>
@@ -2204,10 +2205,10 @@
         <v>1562273</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>4345075.04</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2.7813</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>4345075.04</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1011683.86</v>
@@ -2226,10 +2227,10 @@
         <v>1720241</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>4185248.55</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2.4329</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>4185248.55</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>935183.87</v>
@@ -2248,10 +2249,10 @@
         <v>1705470</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>4600117.08</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2.6973</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>4600117.08</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>791572.9399999999</v>
@@ -2270,10 +2271,10 @@
         <v>1822914</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>4498775.26</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2.4679</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>4498775.26</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>710120.98</v>
@@ -2292,10 +2293,10 @@
         <v>1819529</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>3947199.26</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2.1694</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>3947199.26</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>644542.59</v>
@@ -2314,10 +2315,10 @@
         <v>1721531</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>4010871.87</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2.3298</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>4010871.87</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>653963.89</v>
@@ -2336,10 +2337,10 @@
         <v>1675747</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>3700114.53</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2.208</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>3700114.53</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>593260.53</v>
@@ -2358,10 +2359,10 @@
         <v>1678269</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>3572590.8</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2.1287</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>3572590.8</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>563777</v>
@@ -2380,10 +2381,10 @@
         <v>1707769</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>3365129.37</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.9705</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>3365129.37</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>593637</v>
@@ -2402,10 +2403,10 @@
         <v>1652989</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>3175439.64</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.921</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>3175439.64</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>545973</v>
@@ -2424,10 +2425,10 @@
         <v>1653323</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>3076168.07</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.8606</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>3076168.07</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>548278</v>
@@ -2446,10 +2447,10 @@
         <v>1633973</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>3037797.9</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.8591</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>3037797.9</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>555881</v>
@@ -2468,10 +2469,10 @@
         <v>1651346</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>3056466.2</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.8509</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>3056466.2</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>521326</v>
@@ -2490,10 +2491,10 @@
         <v>1690838</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2966149.97</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.7542</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2966149.97</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>522919</v>
@@ -2512,10 +2513,10 @@
         <v>1607361</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>2839853.91</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.7668</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>2839853.91</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>447859</v>
@@ -2534,10 +2535,10 @@
         <v>1551655</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>2717653.24</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.7515</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>2717653.24</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>465191</v>
@@ -2556,10 +2557,10 @@
         <v>1620937</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>2739066.5</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.6898</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>2739066.5</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>468748</v>
@@ -2578,10 +2579,10 @@
         <v>1649724</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>2718157.24</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.6476</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>2718157.24</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>391627</v>
@@ -2600,10 +2601,10 @@
         <v>1706879</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2352763.42</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.3784</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>2352763.42</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>380300.15</v>
@@ -2622,10 +2623,10 @@
         <v>1728088</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>2471846.58</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.4304</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>2471846.58</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>328040.52</v>
@@ -2644,10 +2645,10 @@
         <v>1710661</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>2463799.04</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.4403</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>2463799.04</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>278095.15</v>
@@ -2666,10 +2667,10 @@
         <v>1767380</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>2369169.73</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.3405</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>2369169.73</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>278980.8</v>
@@ -2688,10 +2689,10 @@
         <v>1569749</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>2253917.71</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.4358</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>2253917.71</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>245731.53</v>
@@ -2710,10 +2711,10 @@
         <v>1540008</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>2060201.76</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.3378</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>2060201.76</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>219152.72</v>
@@ -2732,10 +2733,10 @@
         <v>1626432</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>2195528.91</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.3499</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>2195528.91</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>211035.02</v>
@@ -2754,10 +2755,10 @@
         <v>1551208</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1907264.93</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.2295</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1907264.93</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>193774.01</v>
@@ -2776,10 +2777,10 @@
         <v>1481194</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1823288.26</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1.231</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1823288.26</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>196260.27</v>
@@ -2798,10 +2799,10 @@
         <v>1608171</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1930650.36</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1.2005</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1930650.36</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>193990</v>
@@ -2820,10 +2821,10 @@
         <v>1850415</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1962194.98</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1.0604</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1962194.98</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>225005</v>
@@ -2842,10 +2843,10 @@
         <v>1714879</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1777526.73</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1.0365</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1777526.73</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>191590</v>
@@ -2864,10 +2865,10 @@
         <v>1676403</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1933158.48</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1.1532</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1933158.48</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>168695</v>
@@ -2886,10 +2887,10 @@
         <v>1779962</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1998016</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1.1225</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1998016</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>163670</v>
@@ -2908,10 +2909,10 @@
         <v>1647112</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1831629</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.112</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1831629</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>154433</v>
@@ -2930,10 +2931,10 @@
         <v>1575571</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1736184</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1.1019</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1736184</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>128956</v>
@@ -2952,10 +2953,10 @@
         <v>1678333</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1795257</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1.0697</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1795257</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>138112</v>
@@ -2974,10 +2975,10 @@
         <v>1737854</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1975624</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1.1368</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1975624</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>143273</v>
@@ -2996,10 +2997,10 @@
         <v>1570095</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1719405</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1.0951</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1719405</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>135619</v>
@@ -3018,10 +3019,10 @@
         <v>1554342</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1645998</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1.059</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1645998</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>125769</v>
@@ -3040,10 +3041,10 @@
         <v>1563722</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1639982</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1.0488</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1639982</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>110750</v>
@@ -3062,10 +3063,10 @@
         <v>1547127</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1563880</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1.0108</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1563880</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>95233</v>
@@ -3084,10 +3085,10 @@
         <v>1572432</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1588321</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1.0101</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1588321</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>98401</v>
@@ -3106,10 +3107,10 @@
         <v>1590878</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1594881</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1.0025</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1594881</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>124373</v>
@@ -3128,10 +3129,10 @@
         <v>1580552</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1631650</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1.0323</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1631650</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>74424</v>
@@ -3150,10 +3151,10 @@
         <v>1533393</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1597221</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1.0416</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1597221</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>64206</v>
@@ -3172,10 +3173,10 @@
         <v>1503647</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1396049</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.9284</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1396049</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>81333</v>
@@ -3194,10 +3195,10 @@
         <v>1439444</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1459033</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1.0136</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1459033</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>58961</v>
@@ -3216,10 +3217,10 @@
         <v>1342929</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1336033</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.9949</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1336033</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>65991</v>
@@ -3238,10 +3239,10 @@
         <v>1420838</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1412714</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.9943</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1412714</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>60633</v>
@@ -3260,10 +3261,10 @@
         <v>1357131</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1318076</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.9712000000000001</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1318076</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>63302</v>
@@ -3282,10 +3283,10 @@
         <v>1401741</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1334706</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.9522</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1334706</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>61976</v>
@@ -3304,10 +3305,10 @@
         <v>1439427</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1354158</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.9408</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1354158</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>63283</v>
@@ -3326,10 +3327,10 @@
         <v>1305410</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1195305</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.9157000000000001</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1195305</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>56489</v>
@@ -3348,10 +3349,10 @@
         <v>1273473</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1176919</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.9242</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1176919</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>63614</v>
@@ -3370,10 +3371,10 @@
         <v>1380738</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1253127</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.9076000000000001</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1253127</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>53751</v>
@@ -3391,10 +3392,10 @@
         <v>1319058</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1161597</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.8806</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1161597</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>54233</v>
@@ -3412,10 +3413,10 @@
         <v>1230311</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1057577</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.8596</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1057577</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>51834</v>
@@ -3433,10 +3434,10 @@
         <v>1291123</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1162494</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.9004</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1162494</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>57698</v>
@@ -3454,10 +3455,10 @@
         <v>1314798</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1162437</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.8841</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1162437</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>47579</v>
@@ -3475,10 +3476,10 @@
         <v>1199516</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1077009</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.8979</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1077009</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>52665</v>
@@ -3496,10 +3497,10 @@
         <v>1150425</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>991649</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.862</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>991649</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>47118</v>
@@ -3786,8 +3787,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3910,7 +3911,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3924,7 +3925,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3939,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Etiopía</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3994,7 +3995,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4022,35 +4023,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>787946.830000001</v>
+        <v>61090.47</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.1353428521517651</v>
+        <v>0.0104932948954079</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>726856.3600000013</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.1248495572563573</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>5821857.73</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4061,40 +4070,41 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="12" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="33" t="n"/>
+      <c r="C28" s="35" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="33" t="n"/>
+      <c r="C29" s="35" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="33" t="n"/>
+      <c r="C30" s="35" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="33" t="n"/>
+      <c r="C31" s="35" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="33" t="n"/>
+      <c r="C32" s="35" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="33" t="n"/>
+      <c r="C33" s="35" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="33" t="n"/>
+      <c r="C34" s="35" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4116,7 +4126,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4229,7 +4239,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4253,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4267,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4281,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4295,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Uzbekistán</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4309,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Túnez</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4323,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4398,124 +4408,124 @@
     <row r="26">
       <c r="B26" s="13" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="35" t="n"/>
+      <c r="D26" s="36" t="n"/>
       <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="35" t="n"/>
+      <c r="D27" s="36" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="35" t="n"/>
+      <c r="D28" s="36" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="35" t="n"/>
+      <c r="D29" s="36" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="35" t="n"/>
+      <c r="D30" s="36" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="35" t="n"/>
+      <c r="D31" s="36" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="35" t="n"/>
+      <c r="D32" s="36" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="35" t="n"/>
+      <c r="D33" s="36" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="35" t="n"/>
+      <c r="D34" s="36" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="35" t="n"/>
+      <c r="D35" s="36" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="35" t="n"/>
+      <c r="D36" s="36" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="36" t="n"/>
+      <c r="D37" s="37" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="36" t="n"/>
+      <c r="D38" s="37" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="36" t="n"/>
+      <c r="D39" s="37" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="36" t="n"/>
+      <c r="D40" s="37" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="36" t="n"/>
+      <c r="D41" s="37" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="36" t="n"/>
+      <c r="D42" s="37" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="36" t="n"/>
+      <c r="D43" s="37" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="36" t="n"/>
+      <c r="D44" s="37" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="36" t="n"/>
+      <c r="D45" s="37" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4537,8 +4547,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4643,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4657,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4671,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4685,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4703,7 +4713,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4727,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Malasia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4759,7 +4769,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>República de Corea</t>
+          <t>Republic of Korea</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4812,58 +4822,58 @@
     </row>
     <row r="26">
       <c r="B26" s="15" t="n"/>
-      <c r="C26" s="37" t="n"/>
+      <c r="C26" s="38" t="n"/>
       <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="C35" s="38" t="n"/>
+      <c r="D35" s="37" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="C36" s="38" t="n"/>
+      <c r="D36" s="37" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4932,7 +4942,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5021,10 @@
         <v>852000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2782000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3.2653</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2782000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>5689.36</v>
@@ -5033,10 +5043,10 @@
         <v>678000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1874000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2.764</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1874000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2252.41</v>
@@ -5055,10 +5065,10 @@
         <v>702000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2049000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2.9188</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2049000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2770.88</v>
@@ -5077,10 +5087,10 @@
         <v>626000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1835000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2.9313</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1835000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1322.12</v>
@@ -5099,10 +5109,10 @@
         <v>780000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1743000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2.2346</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1743000</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1452.73</v>
@@ -5121,10 +5131,10 @@
         <v>752000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2149000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2.8577</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2149000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1360.66</v>
@@ -5143,10 +5153,10 @@
         <v>840000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2096000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2.4952</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2096000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1412.88</v>
@@ -5165,10 +5175,10 @@
         <v>811140</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1520390</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.8744</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1520390</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1148.62</v>
@@ -5187,10 +5197,10 @@
         <v>761000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1605000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2.1091</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1605000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>185.02</v>
@@ -5209,10 +5219,10 @@
         <v>775000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1492000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.9252</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1492000</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>408.63</v>
@@ -5231,10 +5241,10 @@
         <v>775000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1492000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.9252</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1492000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>915</v>
@@ -5253,10 +5263,10 @@
         <v>793590</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1304000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.6432</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1304000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1808</v>
@@ -5275,10 +5285,10 @@
         <v>804792</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1276301</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.5859</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1276301</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1803</v>
@@ -5297,10 +5307,10 @@
         <v>792100</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1223400</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.5445</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1223400</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>593</v>
@@ -5319,10 +5329,10 @@
         <v>767230</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1202940</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.5679</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1202940</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1684</v>
@@ -5341,10 +5351,10 @@
         <v>779050</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1269850</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.63</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1269850</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1168</v>
@@ -5363,10 +5373,10 @@
         <v>808170</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1294150</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.6013</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1294150</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>878</v>
@@ -5385,10 +5395,10 @@
         <v>758000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1234100</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.6281</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1234100</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1641</v>
@@ -5407,10 +5417,10 @@
         <v>654900</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1014600</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.5492</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1014600</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1072</v>
@@ -5429,10 +5439,10 @@
         <v>737500</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1185500</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.6075</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1185500</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>556</v>
@@ -5451,10 +5461,10 @@
         <v>774300</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1235700</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.5959</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1235700</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2117</v>
@@ -5473,10 +5483,10 @@
         <v>828600</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>896900</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.0824</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>896900</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1447</v>
@@ -5495,10 +5505,10 @@
         <v>880000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1069000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.2148</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1069000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1111</v>
@@ -5517,10 +5527,10 @@
         <v>836500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>983700</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.176</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>983700</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>138</v>
@@ -5539,10 +5549,10 @@
         <v>959200</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1052800</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.0976</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1052800</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>209.16</v>
@@ -5561,10 +5571,10 @@
         <v>891200</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1043200</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.1706</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1043200</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>276</v>
@@ -5583,10 +5593,10 @@
         <v>840600</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>870100</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.0351</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>870100</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>56</v>
@@ -5605,10 +5615,10 @@
         <v>944000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1066000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.1292</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1066000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1</v>
@@ -5627,10 +5637,10 @@
         <v>883000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>810000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.9173</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>810000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>114</v>
@@ -5649,10 +5659,10 @@
         <v>829100</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>794700</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.9585</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>794700</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>6</v>
@@ -5671,10 +5681,10 @@
         <v>930000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>800100</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.8603</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>800100</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5693,10 +5703,10 @@
         <v>962100</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>862100</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.8961</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>862100</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5715,10 +5725,10 @@
         <v>846600</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>617500</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.7293999999999999</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>617500</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>30</v>
@@ -5737,10 +5747,10 @@
         <v>816200</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>719000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.8809</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>719000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>12</v>
@@ -5759,10 +5769,10 @@
         <v>907800</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>801500</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.8829</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>801500</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>23</v>
@@ -5781,10 +5791,10 @@
         <v>805000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>680000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.8447</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>680000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>14</v>
@@ -5803,10 +5813,10 @@
         <v>743200</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>579800</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.7801</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>579800</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>8</v>
@@ -5825,10 +5835,10 @@
         <v>834600</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>629200</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.7539</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>629200</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>4</v>
@@ -5847,10 +5857,10 @@
         <v>904100</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>877400</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.9705</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>877400</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5869,10 +5879,10 @@
         <v>794800</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>630500</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.7933</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>630500</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>51</v>
@@ -5891,10 +5901,10 @@
         <v>808100</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>566500</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.701</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>566500</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>13</v>
@@ -5913,10 +5923,10 @@
         <v>818000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>538900</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.6587999999999999</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>538900</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>149</v>
@@ -5935,10 +5945,10 @@
         <v>806400</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>514700</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.6383</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>514700</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>106</v>
@@ -5957,10 +5967,10 @@
         <v>834800</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>509100</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.6098</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>509100</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1</v>
@@ -5979,10 +5989,10 @@
         <v>853900</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>507600</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.5943999999999999</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>507600</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>26</v>
@@ -6001,10 +6011,10 @@
         <v>826000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>565700</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.6849</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>565700</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>176</v>
@@ -6023,10 +6033,10 @@
         <v>790900</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>543300</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.6869</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>543300</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>75</v>
@@ -6045,10 +6055,10 @@
         <v>781500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>419400</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.5367000000000001</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>419400</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>5</v>
@@ -6067,10 +6077,10 @@
         <v>739800</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>526100</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.7111000000000001</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>526100</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>49</v>
@@ -6089,10 +6099,10 @@
         <v>685600</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>441200</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.6435</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>441200</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>20</v>
@@ -6111,10 +6121,10 @@
         <v>738800</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>497000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.6727000000000001</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>497000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>5</v>
@@ -6133,10 +6143,10 @@
         <v>682400</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>411700</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.6032999999999999</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>411700</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6155,10 +6165,10 @@
         <v>753100</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>493900</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.6557999999999999</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>493900</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>6</v>
@@ -6177,10 +6187,10 @@
         <v>783400</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>520400</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.6643</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>520400</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>2</v>
@@ -6199,10 +6209,10 @@
         <v>682000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>395000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.5792</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>395000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>34</v>
@@ -6221,10 +6231,10 @@
         <v>663000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>399000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.6018</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>399000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6243,10 +6253,10 @@
         <v>788000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>501000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.6357999999999999</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>501000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6264,10 +6274,10 @@
         <v>721000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>418000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.5798</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>418000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6285,10 +6295,10 @@
         <v>634000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>364000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.5741000000000001</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>364000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>3</v>
@@ -6306,10 +6316,10 @@
         <v>716000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>475000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.6634</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>475000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6327,10 +6337,10 @@
         <v>748000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>490000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.6551</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>490000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6348,10 +6358,10 @@
         <v>637000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>425000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.6672</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>425000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6369,10 +6379,10 @@
         <v>616000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>389000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.6315</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>389000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6708,7 +6718,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6787,10 +6797,10 @@
         <v>97361</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>662833</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6.808</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>662833</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>71459.00999999999</v>
@@ -6809,10 +6819,10 @@
         <v>98324</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>624825</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>6.3548</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>624825</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>33286.86</v>
@@ -6831,10 +6841,10 @@
         <v>100137</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>492681</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>4.920100000000001</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>492681</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>47323.72</v>
@@ -6853,10 +6863,10 @@
         <v>96901</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>157607</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.6265</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>157607</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>65844.25999999999</v>
@@ -6875,10 +6885,10 @@
         <v>96800</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>149473</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.5441</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>149473</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>19028.03</v>
@@ -6897,10 +6907,10 @@
         <v>101072</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>141177</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.3968</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>141177</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3743</v>
@@ -6919,10 +6929,10 @@
         <v>103380</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>136872</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.324</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>136872</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>8672</v>
@@ -6941,10 +6951,10 @@
         <v>101972</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>130260</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.2774</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>130260</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>5692</v>
@@ -6963,10 +6973,10 @@
         <v>92167</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>123207</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1.3368</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>123207</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>35153.49</v>
@@ -6985,10 +6995,10 @@
         <v>89820</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.2247</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>110000</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>26934.95</v>
@@ -7007,10 +7017,10 @@
         <v>93460</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>102000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.0914</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>102000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>28863</v>
@@ -7029,10 +7039,10 @@
         <v>97120</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.2974</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>126000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>21878</v>
@@ -7051,10 +7061,10 @@
         <v>104967</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>176134</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.678</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>176134</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>13177</v>
@@ -7073,10 +7083,10 @@
         <v>87026</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>109350</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.2565</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>109350</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>28079</v>
@@ -7095,10 +7105,10 @@
         <v>89268</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>109337</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.2248</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>109337</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>26640</v>
@@ -7117,10 +7127,10 @@
         <v>94406</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>117765</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.2474</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>117765</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2229</v>
@@ -7139,10 +7149,10 @@
         <v>141490</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>153955</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.0881</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>153955</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>31704</v>
@@ -7161,10 +7171,10 @@
         <v>142466</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>155430</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.091</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>155430</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2300</v>
@@ -7183,10 +7193,10 @@
         <v>154812</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>185635</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.1991</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>185635</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>9723</v>
@@ -7205,10 +7215,10 @@
         <v>162154</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>138740</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.8556</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>138740</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>18441</v>
@@ -7227,10 +7237,10 @@
         <v>169937</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>137325</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.8081</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>137325</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>14418</v>
@@ -7249,10 +7259,10 @@
         <v>169970</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>136000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.8001</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>136000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>16012</v>
@@ -7271,10 +7281,10 @@
         <v>174826</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>141000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.8065</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>141000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2400</v>
@@ -7293,10 +7303,10 @@
         <v>175231</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>143000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.8161</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>143000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>280</v>
@@ -7315,10 +7325,10 @@
         <v>174826</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>142000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.8122</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>142000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>9661</v>
@@ -7337,10 +7347,10 @@
         <v>66290</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>52820</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.7968</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>52820</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>59</v>
@@ -7359,10 +7369,10 @@
         <v>66205</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>52215</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.7887000000000001</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>52215</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>49</v>
@@ -7381,10 +7391,10 @@
         <v>66000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>52550</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.7962</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>52550</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>10306</v>
@@ -7403,10 +7413,10 @@
         <v>66400</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>52670</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.7932</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>52670</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>768</v>
@@ -7425,10 +7435,10 @@
         <v>66800</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>53890</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.8067000000000001</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>53890</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>5296</v>
@@ -7447,10 +7457,10 @@
         <v>67168</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>54365</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.8094</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>54365</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2472</v>
@@ -7469,10 +7479,10 @@
         <v>67265</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>50715</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.754</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>50715</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>21774</v>
@@ -7491,10 +7501,10 @@
         <v>70183</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>51895</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.7393999999999999</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>51895</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>16538</v>
@@ -7513,10 +7523,10 @@
         <v>69646</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>51520</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.7397</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>51520</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>733</v>
@@ -7535,10 +7545,10 @@
         <v>67796</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>47485</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.7004</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>47485</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>85</v>
@@ -7557,10 +7567,10 @@
         <v>67393</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>45270</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.6717000000000001</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>45270</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>3452</v>
@@ -7579,10 +7589,10 @@
         <v>66490</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>43000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.6467000000000001</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>43000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>565</v>
@@ -7601,10 +7611,10 @@
         <v>68865</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>44100</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.6404</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>44100</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>12</v>
@@ -7623,10 +7633,10 @@
         <v>72061</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>44753</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.621</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>44753</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>4265</v>
@@ -7645,10 +7655,10 @@
         <v>75527</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>46018</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.6093</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>46018</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1952</v>
@@ -7667,10 +7677,10 @@
         <v>75526</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>46397</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.6143</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>46397</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7689,10 +7699,10 @@
         <v>75643</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>44249</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.585</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>44249</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1007</v>
@@ -7711,10 +7721,10 @@
         <v>73605</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>40414</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.5491</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>40414</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>271</v>
@@ -7733,10 +7743,10 @@
         <v>80995</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>49777</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.6146</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>49777</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>116</v>
@@ -7755,10 +7765,10 @@
         <v>83467</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>52523</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.6293</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>52523</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>18</v>
@@ -7777,10 +7787,10 @@
         <v>82547</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>49664</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.6016</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>49664</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>700</v>
@@ -7799,10 +7809,10 @@
         <v>77069</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>45367</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.5887</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>45367</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>114</v>
@@ -7821,10 +7831,10 @@
         <v>79232</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>52888</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.6675</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>52888</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>36</v>
@@ -7843,10 +7853,10 @@
         <v>78856</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>50192</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.6365</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>50192</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7865,10 +7875,10 @@
         <v>66822</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>44147</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.6607000000000001</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>44147</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>12</v>
@@ -7887,10 +7897,10 @@
         <v>77662</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>52300</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.6734</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>52300</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>108</v>
@@ -7909,10 +7919,10 @@
         <v>82335</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>58987</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.7163999999999999</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>58987</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7931,10 +7941,10 @@
         <v>88600</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>64000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.7222999999999999</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>64000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7953,10 +7963,10 @@
         <v>89000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>67100</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.7539</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>67100</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7975,10 +7985,10 @@
         <v>87400</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>62000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.7094</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>62000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -7997,10 +8007,10 @@
         <v>86200</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>59900</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.6949</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>59900</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8019,10 +8029,10 @@
         <v>80500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>55900</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.6944</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>55900</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8040,10 +8050,10 @@
         <v>77700</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>52800</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.6795</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>52800</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8061,10 +8071,10 @@
         <v>78500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>51700</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.6586000000000001</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>51700</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8082,10 +8092,10 @@
         <v>78500</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>53200</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.6777000000000001</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>53200</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8103,10 +8113,10 @@
         <v>73200</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>48700</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.6653</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>48700</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8124,10 +8134,10 @@
         <v>70000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>48000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.6857000000000001</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>48000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8145,10 +8155,10 @@
         <v>70800</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>47000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.6637999999999999</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>47000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8484,7 +8494,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8563,10 +8573,10 @@
         <v>84570</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>328909.71</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3.8892</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>328909.71</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>84479.39</v>
@@ -8585,10 +8595,10 @@
         <v>84799</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>327383.88</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3.8607</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>327383.88</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>83149.42999999999</v>
@@ -8607,10 +8617,10 @@
         <v>85042</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>330388.97</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>3.885</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>330388.97</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>84468.49000000001</v>
@@ -8629,10 +8639,10 @@
         <v>88202</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>328956.29</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3.7296</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>328956.29</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>77459.53</v>
@@ -8651,10 +8661,10 @@
         <v>88945</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>322806.38</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>3.6293</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>322806.38</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>83947.83</v>
@@ -8673,10 +8683,10 @@
         <v>87231</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>339404.25</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>3.8909</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>339404.25</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>78811.85000000001</v>
@@ -8695,10 +8705,10 @@
         <v>84865</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>324658.22</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>3.8256</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>324658.22</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>89932.32000000001</v>
@@ -8717,10 +8727,10 @@
         <v>85244</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>304356.67</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>3.5704</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>304356.67</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>72366.28</v>
@@ -8739,10 +8749,10 @@
         <v>85645</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>348223</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>4.0659</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>348223</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>74180.72</v>
@@ -8761,10 +8771,10 @@
         <v>87176</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>321395</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>3.6867</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>321395</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>68944.98</v>
@@ -8783,10 +8793,10 @@
         <v>87793</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>243452</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2.773</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>243452</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>53760</v>
@@ -8805,10 +8815,10 @@
         <v>81084</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>215619.15</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2.6592</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>215619.15</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>50654</v>
@@ -8827,10 +8837,10 @@
         <v>74709</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>188138.19</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2.5183</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>188138.19</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>36970</v>
@@ -8849,10 +8859,10 @@
         <v>71803</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>158883</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2.2128</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>158883</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>43022</v>
@@ -8871,10 +8881,10 @@
         <v>71305</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>165458</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2.3204</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>165458</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>45488</v>
@@ -8893,10 +8903,10 @@
         <v>70984</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>162637</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2.2912</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>162637</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>32882</v>
@@ -8915,10 +8925,10 @@
         <v>70605</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>159109</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2.2535</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>159109</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>42879</v>
@@ -8937,10 +8947,10 @@
         <v>70388</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>156101</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>2.2177</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>156101</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>32485</v>
@@ -8959,10 +8969,10 @@
         <v>69596</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>152164</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>2.1864</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>152164</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>29084</v>
@@ -8981,10 +8991,10 @@
         <v>69452</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>150422</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>2.1658</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>150422</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>25994</v>
@@ -9003,10 +9013,10 @@
         <v>69058</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>145644</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>2.109</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>145644</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>19042</v>
@@ -9025,10 +9035,10 @@
         <v>67685</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>141109</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2.0848</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>141109</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>14705</v>
@@ -9047,10 +9057,10 @@
         <v>67367</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>137182</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>2.0363</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>137182</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>9252</v>
@@ -9069,10 +9079,10 @@
         <v>66421</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>135470</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>2.0396</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>135470</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>7824</v>
@@ -9091,10 +9101,10 @@
         <v>23200</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.7241</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>40000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>4643</v>
@@ -9113,10 +9123,10 @@
         <v>23040</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>38000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.6493</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>38000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>4079</v>
@@ -9135,10 +9145,10 @@
         <v>22080</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>33000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.4946</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>33000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>5080</v>
@@ -9157,10 +9167,10 @@
         <v>22240</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>33000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.4838</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>33000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>3436</v>
@@ -9179,10 +9189,10 @@
         <v>22080</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>32000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.4493</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>32000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>2047</v>
@@ -9201,10 +9211,10 @@
         <v>21760</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>32000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1.4706</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>32000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>5428</v>
@@ -9223,10 +9233,10 @@
         <v>21600</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>32000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1.4815</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>32000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2635</v>
@@ -9245,10 +9255,10 @@
         <v>21440</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1.6325</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>35000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1776</v>
@@ -9267,10 +9277,10 @@
         <v>14608</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>17100</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1.1706</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>17100</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>2198</v>
@@ -9289,10 +9299,10 @@
         <v>11872</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>20800</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1.752</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>20800</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>3127</v>
@@ -9311,10 +9321,10 @@
         <v>9120</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>14800</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1.6228</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>14800</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>3153</v>
@@ -9333,10 +9343,10 @@
         <v>21760</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>37100</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.705</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>37100</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1866</v>
@@ -9355,10 +9365,10 @@
         <v>21680</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>39100</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1.8035</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>39100</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>3959</v>
@@ -9377,10 +9387,10 @@
         <v>22000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1.5909</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>35000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>2148</v>
@@ -9399,10 +9409,10 @@
         <v>27360</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>38300</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1.3999</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>38300</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1902</v>
@@ -9421,10 +9431,10 @@
         <v>36480</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>63800</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1.7489</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>63800</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1105</v>
@@ -9443,10 +9453,10 @@
         <v>31392</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>53900</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1.717</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>53900</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>3021</v>
@@ -9465,10 +9475,10 @@
         <v>36928</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>61400</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1.6627</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>61400</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>2196</v>
@@ -9487,10 +9497,10 @@
         <v>35392</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>60900</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1.7207</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>60900</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1517</v>
@@ -9509,10 +9519,10 @@
         <v>35040</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>59200</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1.6895</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>59200</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>239</v>
@@ -9531,10 +9541,10 @@
         <v>36080</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>61600</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1.7073</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>61600</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>973</v>
@@ -9553,10 +9563,10 @@
         <v>38304</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>62700</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1.6369</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>62700</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>230</v>
@@ -9575,10 +9585,10 @@
         <v>34832</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>66100</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1.8977</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>66100</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>814</v>
@@ -9597,10 +9607,10 @@
         <v>38368</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>70700</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1.8427</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>70700</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>3600</v>
@@ -9619,10 +9629,10 @@
         <v>33888</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>61200</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1.8059</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>61200</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>441</v>
@@ -9641,10 +9651,10 @@
         <v>31536</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>59800</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1.8962</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>59800</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>878</v>
@@ -9663,10 +9673,10 @@
         <v>33232</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>76000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2.287</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>76000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>147</v>
@@ -9685,10 +9695,10 @@
         <v>44176</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>84800</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1.9196</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>84800</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1248</v>
@@ -9707,10 +9717,10 @@
         <v>33376</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>54800</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1.6419</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>54800</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>218</v>
@@ -9729,10 +9739,10 @@
         <v>40368</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>62800</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1.5557</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>62800</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>226</v>
@@ -9751,10 +9761,10 @@
         <v>30304</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1.4652</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>44400</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>563</v>
@@ -9773,10 +9783,10 @@
         <v>27568</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>42100</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1.5271</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>42100</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>3</v>
@@ -9795,10 +9805,10 @@
         <v>29648</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>42800</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1.4436</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>42800</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>1</v>
@@ -9816,10 +9826,10 @@
         <v>33680</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>51300</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1.5232</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>51300</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>29</v>
@@ -9837,10 +9847,10 @@
         <v>24896</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>35600</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1.4299</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>35600</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>4</v>
@@ -9858,10 +9868,10 @@
         <v>24336</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>32100</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1.319</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>32100</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>5</v>
@@ -9879,10 +9889,10 @@
         <v>27296</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1.4691</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>40100</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>12</v>
@@ -9900,10 +9910,10 @@
         <v>28368</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>36800</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1.2972</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>36800</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>3</v>
@@ -9921,10 +9931,10 @@
         <v>23760</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>27400</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1.1532</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>27400</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10260,7 +10270,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10339,10 +10349,10 @@
         <v>49105</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>325522.02</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6.6291</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>325522.02</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>144435.47</v>
@@ -10361,10 +10371,10 @@
         <v>49278</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>326936.16</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>6.6345</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>326936.16</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>135484.84</v>
@@ -10383,10 +10393,10 @@
         <v>49175</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>326057.39</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>6.6305</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>326057.39</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>223397.63</v>
@@ -10405,10 +10415,10 @@
         <v>48860</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>323572.51</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>6.6224</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>323572.51</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>168187.5</v>
@@ -10427,10 +10437,10 @@
         <v>49800</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>331178.57</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>6.6502</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>331178.57</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>168849.79</v>
@@ -10449,10 +10459,10 @@
         <v>48865</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>323421.11</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>6.6187</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>323421.11</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>81811.25</v>
@@ -10471,10 +10481,10 @@
         <v>47916</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>316117.85</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6.597300000000001</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>316117.85</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>7688.57</v>
@@ -10493,10 +10503,10 @@
         <v>46716</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>309074.98</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>6.616</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>309074.98</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2111.82</v>
@@ -10515,10 +10525,10 @@
         <v>45754</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>305809.44</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>6.6837</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>305809.44</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2990.07</v>
@@ -10537,10 +10547,10 @@
         <v>45015</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>307286.89</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>6.8264</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>307286.89</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3256.41</v>
@@ -10559,10 +10569,10 @@
         <v>44000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>6.8182</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>300000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>4217</v>
@@ -10581,10 +10591,10 @@
         <v>43000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>290000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>6.7442</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>290000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>19031</v>
@@ -10603,10 +10613,10 @@
         <v>43125</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>277815.73</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>6.4421</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>277815.73</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>7024</v>
@@ -10625,10 +10635,10 @@
         <v>43000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>265000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>6.1628</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>265000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>6465</v>
@@ -10647,10 +10657,10 @@
         <v>42000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>260000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>6.1905</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>260000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1124</v>
@@ -10669,10 +10679,10 @@
         <v>41000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>252000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>6.1463</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>252000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>737</v>
@@ -10691,10 +10701,10 @@
         <v>40000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>6.25</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>250000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2585</v>
@@ -10713,10 +10723,10 @@
         <v>38000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>245000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>6.4474</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>245000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>261</v>
@@ -10735,10 +10745,10 @@
         <v>36500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>240000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>6.5753</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>240000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1073</v>
@@ -10757,10 +10767,10 @@
         <v>36648</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>235000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>6.4123</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>235000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>785</v>
@@ -10779,10 +10789,10 @@
         <v>36000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>230000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>6.3889</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>230000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>343</v>
@@ -10801,10 +10811,10 @@
         <v>35500</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>220000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>6.1972</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>220000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>657</v>
@@ -10823,10 +10833,10 @@
         <v>35058</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>215000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>6.1328</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>215000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>527</v>
@@ -10845,10 +10855,10 @@
         <v>35000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>212000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>6.0571</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>212000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>212.93</v>
@@ -10867,10 +10877,10 @@
         <v>34000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>215000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>6.3235</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>215000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>204</v>
@@ -10889,10 +10899,10 @@
         <v>33418</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>205000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>6.134399999999999</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>205000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>187</v>
@@ -10911,10 +10921,10 @@
         <v>33000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>6.0606</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>200000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>145</v>
@@ -10933,10 +10943,10 @@
         <v>30201</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>5.96</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>180000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1813</v>
@@ -10955,10 +10965,10 @@
         <v>29699</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>175000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>5.892399999999999</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>175000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1552</v>
@@ -10977,10 +10987,10 @@
         <v>31034</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>5.8002</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>180000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>960</v>
@@ -10999,10 +11009,10 @@
         <v>30000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>172000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>5.7333</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>172000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>310</v>
@@ -11021,10 +11031,10 @@
         <v>29000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>168000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>5.793100000000001</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>168000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>10871</v>
@@ -11043,10 +11053,10 @@
         <v>28000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>164000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>5.8571</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>164000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1685</v>
@@ -11065,10 +11075,10 @@
         <v>28500</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>160000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>5.614</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>160000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>273</v>
@@ -11087,10 +11097,10 @@
         <v>28000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>156000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>5.5714</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>156000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1399</v>
@@ -11109,10 +11119,10 @@
         <v>27000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>152000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5.6296</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>152000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>3811</v>
@@ -11131,10 +11141,10 @@
         <v>27000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>5.5556</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>150000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>35</v>
@@ -11153,10 +11163,10 @@
         <v>29000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>145000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>145000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>384</v>
@@ -11175,10 +11185,10 @@
         <v>25000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>5.6</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>140000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -11197,10 +11207,10 @@
         <v>25500</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>135000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>5.2941</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>135000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -11219,10 +11229,10 @@
         <v>26000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>130000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -11241,10 +11251,10 @@
         <v>24500</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>5.102</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>125000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11263,10 +11273,10 @@
         <v>24000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -11285,10 +11295,10 @@
         <v>24000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>118000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>4.9167</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>118000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11307,10 +11317,10 @@
         <v>23000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>116000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5.0435</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>116000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11329,10 +11339,10 @@
         <v>24000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>112000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>4.6667</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>112000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11351,10 +11361,10 @@
         <v>23500</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>4.680899999999999</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>110000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11373,10 +11383,10 @@
         <v>23500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>108000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>4.5957</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>108000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11395,10 +11405,10 @@
         <v>23000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>105000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>4.5652</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>105000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11417,10 +11427,10 @@
         <v>22000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>4.5455</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>100000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11439,10 +11449,10 @@
         <v>21500</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>99000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>4.6047</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>99000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11461,10 +11471,10 @@
         <v>21000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>96000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>4.5714</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>96000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11483,10 +11493,10 @@
         <v>22000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>94000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>4.272699999999999</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>94000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11505,10 +11515,10 @@
         <v>20500</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>4.3902</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>90000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11527,10 +11537,10 @@
         <v>22000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>88000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>88000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11549,10 +11559,10 @@
         <v>21000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>4.0476</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>85000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11571,10 +11581,10 @@
         <v>20000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>4</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>80000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11592,10 +11602,10 @@
         <v>20000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>4</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>80000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11613,10 +11623,10 @@
         <v>20500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>78000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>3.8049</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>78000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11634,10 +11644,10 @@
         <v>20000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>3.5</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>70000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11655,10 +11665,10 @@
         <v>18000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>66000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>3.6667</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>66000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11676,10 +11686,10 @@
         <v>19000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>65000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>3.4211</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>65000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11697,10 +11707,10 @@
         <v>19000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>3.3158</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>63000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -12036,7 +12046,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12115,10 +12125,10 @@
         <v>175983</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>298205.81</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.6945</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>298205.81</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3.7</v>
@@ -12137,10 +12147,10 @@
         <v>146501</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>234885.79</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.6033</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>234885.79</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>251.21</v>
@@ -12159,10 +12169,10 @@
         <v>157650</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>249289</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.5813</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>249289</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>594.64</v>
@@ -12181,10 +12191,10 @@
         <v>168346</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>295980.51</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.7582</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>295980.51</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>137.15</v>
@@ -12203,10 +12213,10 @@
         <v>174464</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>313115.43</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.7947</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>313115.43</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>29.04</v>
@@ -12225,10 +12235,10 @@
         <v>172142</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>307457.11</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.7861</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>307457.11</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4.03</v>
@@ -12247,10 +12257,10 @@
         <v>152753</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>264722.53</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.733</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>264722.53</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2.66</v>
@@ -12269,10 +12279,10 @@
         <v>180701</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>329804</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.8251</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>329804</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>53.92</v>
@@ -12291,10 +12301,10 @@
         <v>142795</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>289677.22</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2.0286</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>289677.22</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>38.34</v>
@@ -12313,10 +12323,10 @@
         <v>92394</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>170766</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.8482</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>170766</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>26.5</v>
@@ -12335,10 +12345,10 @@
         <v>96571</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>179480.06</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.8585</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>179480.06</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>37</v>
@@ -12357,10 +12367,10 @@
         <v>85460</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>158545.61</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.8552</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>158545.61</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>38</v>
@@ -12379,10 +12389,10 @@
         <v>80389</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>147180.76</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.8309</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>147180.76</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2</v>
@@ -12401,10 +12411,10 @@
         <v>74993</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>136100.06</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.8148</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>136100.06</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1</v>
@@ -12423,10 +12433,10 @@
         <v>69676</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>125335.86</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.7988</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>125335.86</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2</v>
@@ -12445,10 +12455,10 @@
         <v>65187</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>116216.17</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.7828</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>116216.17</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>27</v>
@@ -12467,10 +12477,10 @@
         <v>63581</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>112334.46</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.7668</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>112334.46</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>6</v>
@@ -12489,10 +12499,10 @@
         <v>58102</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>101723</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.7508</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>101723</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>24</v>
@@ -12511,10 +12521,10 @@
         <v>66774</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>115836.81</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.7348</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>115836.81</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>19</v>
@@ -12533,10 +12543,10 @@
         <v>59762</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>102714.77</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.7187</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>102714.77</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>12</v>
@@ -12555,10 +12565,10 @@
         <v>64069</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>109442.01</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.7082</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>109442.01</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -12577,10 +12587,10 @@
         <v>57354</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>97677.57000000001</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.7031</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>97677.57000000001</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>5</v>
@@ -12599,10 +12609,10 @@
         <v>53823</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>91389.02</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.698</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>91389.02</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -12621,10 +12631,10 @@
         <v>52813</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>89404.23</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.6929</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>89404.23</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0.12</v>
@@ -12641,10 +12651,10 @@
         <v>51797</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>87419.42999999999</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.6877</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>87419.42999999999</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -12663,10 +12673,10 @@
         <v>50774</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>85434.63</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.6826</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>85434.63</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -12685,10 +12695,10 @@
         <v>49746</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>83449.83</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.6775</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>83449.83</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -12705,10 +12715,10 @@
         <v>48711</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>81465.03</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.6724</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>81465.03</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -12725,10 +12735,10 @@
         <v>47670</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>79480.23</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.6673</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>79480.23</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -12745,10 +12755,10 @@
         <v>46622</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>77495.42999999999</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1.6622</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>77495.42999999999</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>3</v>
@@ -12765,10 +12775,10 @@
         <v>45568</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>75510.63</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1.6571</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>75510.63</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -12776,745 +12786,399 @@
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="29" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="C43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B43" s="28" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C43" s="29" t="inlineStr"/>
+      <c r="D43" s="29" t="inlineStr"/>
+      <c r="E43" s="29" t="inlineStr"/>
+      <c r="F43" s="29" t="inlineStr"/>
+      <c r="G43" s="29" t="inlineStr"/>
       <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
+      <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
